--- a/src/main/webapp/excelTemplate/sampleOutcomeTemplate.xlsx
+++ b/src/main/webapp/excelTemplate/sampleOutcomeTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserK\Desktop\프로젝트\공공기관\실험실\시스템별_공유문서\자원관리\데이타\관리대장_자료\더기반\고추_템플릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\pref\digitalKiban\src\main\webapp\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2110E90-4C5D-4313-8669-C4D1C51BAF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC762A62-CC64-43C5-A28F-DC3D40CBE933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD97FB1-3EAE-486A-A507-892FB085657F}"/>
+    <workbookView xWindow="1800" yWindow="3405" windowWidth="27495" windowHeight="15435" xr2:uid="{3DD97FB1-3EAE-486A-A507-892FB085657F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>시교수출</t>
+    <t>시교출고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +566,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,5 +607,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>